--- a/DataNV/Бакум.xlsx
+++ b/DataNV/Бакум.xlsx
@@ -603,7 +603,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026605 від 19.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026605 від 19.07.2024 14:02:13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -725,7 +725,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026831 від 30.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026831 від 30.07.2024 10:10:50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
